--- a/01-07.xlsx
+++ b/01-07.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data_Since\Статистика\Неделя 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Projects\01-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91A14F64-1BA2-48AF-A8AC-D3BCCF008C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CCB788-4C3F-410F-8C86-35885A0759A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,37 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
-  <si>
-    <t>Ария</t>
-  </si>
-  <si>
-    <t>Санса</t>
-  </si>
-  <si>
-    <t>Джон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дэнни </t>
-  </si>
-  <si>
-    <t>Бран</t>
-  </si>
-  <si>
-    <t>Сандор</t>
-  </si>
-  <si>
-    <t>Гора</t>
-  </si>
-  <si>
-    <t>Тирион</t>
-  </si>
-  <si>
-    <t>Теон</t>
-  </si>
-  <si>
-    <t>Якен</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>ж</t>
   </si>
@@ -393,7 +363,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,24 +373,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -430,11 +400,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -444,11 +414,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>21</v>
@@ -458,11 +428,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -472,11 +442,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -486,11 +456,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>25</v>
@@ -500,11 +470,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="A8">
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -514,11 +484,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -528,11 +498,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>22</v>
@@ -542,11 +512,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>16</v>

--- a/01-07.xlsx
+++ b/01-07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Projects\01-07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CCB788-4C3F-410F-8C86-35885A0759A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3224B7-FDD7-4FDB-A816-520990E3D710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="2535" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>ж</t>
   </si>
@@ -43,6 +43,36 @@
   </si>
   <si>
     <t>Ves</t>
+  </si>
+  <si>
+    <t>Ария</t>
+  </si>
+  <si>
+    <t>Санса</t>
+  </si>
+  <si>
+    <t>Джон</t>
+  </si>
+  <si>
+    <t>Дэнни</t>
+  </si>
+  <si>
+    <t>Бран</t>
+  </si>
+  <si>
+    <t>Сандор</t>
+  </si>
+  <si>
+    <t>Гора</t>
+  </si>
+  <si>
+    <t>Тимон</t>
+  </si>
+  <si>
+    <t>Теон</t>
+  </si>
+  <si>
+    <t>Якен</t>
   </si>
 </sst>
 </file>
@@ -386,8 +416,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -400,8 +430,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -414,8 +444,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -428,8 +458,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -442,8 +472,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -456,8 +486,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -470,8 +500,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>76</v>
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -484,8 +514,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -498,8 +528,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -512,8 +542,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
